--- a/pin_assign.xlsx
+++ b/pin_assign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOUDAI\source\repos\UFBApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79552B8C-2BC1-4C3B-B393-227091EACC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC4D49-E89F-4D56-BAF9-374AB5681FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1935" windowWidth="21600" windowHeight="13215" activeTab="1" xr2:uid="{2AB40C88-702C-48AD-B42D-F4A38EC20019}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{2AB40C88-702C-48AD-B42D-F4A38EC20019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -536,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,6 +619,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,14 +647,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -666,12 +669,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="962025"/>
-          <a:ext cx="1371600" cy="714375"/>
+          <a:off x="2054968" y="843066"/>
+          <a:ext cx="1369979" cy="717414"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -694,14 +702,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -716,12 +724,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="962025"/>
-          <a:ext cx="1371600" cy="4810125"/>
+          <a:off x="2054968" y="843066"/>
+          <a:ext cx="1369979" cy="4584159"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -744,14 +757,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -766,12 +779,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2057400" y="1200150"/>
-          <a:ext cx="1371600" cy="476250"/>
+          <a:off x="2054968" y="1082204"/>
+          <a:ext cx="1369979" cy="478276"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -794,14 +812,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -816,8 +834,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1914525"/>
-          <a:ext cx="1371600" cy="3381375"/>
+          <a:off x="2054968" y="1799619"/>
+          <a:ext cx="1369979" cy="3149330"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -844,14 +862,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684989</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -866,12 +884,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4114800" y="1676400"/>
-          <a:ext cx="2057400" cy="733427"/>
+          <a:off x="4109936" y="1560480"/>
+          <a:ext cx="2054968" cy="733630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -894,14 +917,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684989</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -916,12 +939,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4114800" y="1914525"/>
-          <a:ext cx="2057400" cy="1457326"/>
+          <a:off x="4109936" y="1799619"/>
+          <a:ext cx="2054968" cy="1459150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -944,14 +972,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684989</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -966,12 +994,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4114800" y="1200150"/>
-          <a:ext cx="2057400" cy="5057775"/>
+          <a:off x="4109936" y="1082204"/>
+          <a:ext cx="2054968" cy="5070542"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -994,14 +1027,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684989</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1016,12 +1049,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4114800" y="1438275"/>
-          <a:ext cx="2057400" cy="5772151"/>
+          <a:off x="4109936" y="1321342"/>
+          <a:ext cx="2054968" cy="5787959"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1044,14 +1082,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1066,12 +1104,19 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1371600" y="8896350"/>
-          <a:ext cx="1371600" cy="238125"/>
+          <a:off x="2054968" y="9764140"/>
+          <a:ext cx="1369979" cy="239138"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1094,14 +1139,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1116,12 +1161,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="8896350"/>
-          <a:ext cx="1371600" cy="2162175"/>
+          <a:off x="2054968" y="9764140"/>
+          <a:ext cx="1369979" cy="2168457"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1144,14 +1194,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1166,12 +1216,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1371600" y="8181975"/>
-          <a:ext cx="1371600" cy="476250"/>
+          <a:off x="2054968" y="9038619"/>
+          <a:ext cx="1369979" cy="478276"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1194,14 +1249,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1216,8 +1271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="8420101"/>
-          <a:ext cx="1371600" cy="2162174"/>
+          <a:off x="2054968" y="9277758"/>
+          <a:ext cx="1369979" cy="2176563"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1244,14 +1299,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1266,12 +1321,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="8181975"/>
-          <a:ext cx="1371600" cy="2638425"/>
+          <a:off x="2054968" y="9038619"/>
+          <a:ext cx="1369979" cy="2654840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1294,14 +1354,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1316,12 +1376,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7943850"/>
-          <a:ext cx="1371600" cy="0"/>
+          <a:off x="2054968" y="8799480"/>
+          <a:ext cx="1369979" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1344,14 +1409,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1366,12 +1431,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7705725"/>
-          <a:ext cx="1371600" cy="952500"/>
+          <a:off x="2054968" y="8560342"/>
+          <a:ext cx="1369979" cy="956553"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1394,14 +1464,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1416,12 +1486,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7467600"/>
-          <a:ext cx="1371600" cy="2876550"/>
+          <a:off x="2054968" y="8321204"/>
+          <a:ext cx="1369979" cy="2893979"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1444,14 +1519,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1466,12 +1541,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1438275"/>
-          <a:ext cx="1371600" cy="0"/>
+          <a:off x="2054968" y="1321342"/>
+          <a:ext cx="1369979" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1494,14 +1574,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1516,12 +1596,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1438275"/>
-          <a:ext cx="1371600" cy="4095750"/>
+          <a:off x="2054968" y="1321342"/>
+          <a:ext cx="1369979" cy="3866745"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1544,14 +1629,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1566,12 +1651,19 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="10096500"/>
-          <a:ext cx="1371600" cy="0"/>
+          <a:off x="4109936" y="10003278"/>
+          <a:ext cx="1369979" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2261,7 +2353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632E6C13-1FF6-4EF8-8EF1-5EF039111B47}">
   <dimension ref="C2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2288,7 +2382,7 @@
       <c r="F3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2359,12 +2453,12 @@
       <c r="F10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="18" t="s">

--- a/pin_assign.xlsx
+++ b/pin_assign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOUDAI\source\repos\UFBApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC4D49-E89F-4D56-BAF9-374AB5681FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28157570-95DC-4BB0-B8E4-BE9B8060503A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{2AB40C88-702C-48AD-B42D-F4A38EC20019}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>A0</t>
   </si>
@@ -594,9 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -621,14 +618,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -840,6 +861,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -892,7 +918,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -915,16 +941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>117545</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>684989</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>117546</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -939,15 +965,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4109936" y="1799619"/>
-          <a:ext cx="2054968" cy="1459150"/>
+          <a:off x="4099034" y="610914"/>
+          <a:ext cx="2049518" cy="2167758"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1002,7 +1028,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1057,7 +1083,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1112,9 +1138,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1169,7 +1193,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="7030A0"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1224,7 +1248,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1277,6 +1301,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1329,7 +1358,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1384,7 +1413,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="7030A0"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1439,7 +1468,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="7030A0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1494,7 +1523,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1659,9 +1688,392 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10902</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12718</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D19D13-5D15-415B-907A-4FF3341FD11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4109936" y="1799619"/>
+          <a:ext cx="2051334" cy="1458312"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124811</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C9FEEB-F0FE-436F-9009-E64C71ED8015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="610913"/>
+          <a:ext cx="2049518" cy="5990898"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F631534-B4C6-458A-A5C1-970FF111020D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="2279430"/>
+          <a:ext cx="2049518" cy="249621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00175F55-2225-4FA4-A779-BC64DD34F902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="2279430"/>
+          <a:ext cx="2049518" cy="722588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2596475C-3201-44C9-BFDA-DA586D9F70FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="2279430"/>
+          <a:ext cx="2049518" cy="4072759"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01DF78A-EA14-448D-AC61-B7CA55B3CCAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="2279430"/>
+          <a:ext cx="2049518" cy="4545725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2938D9-B079-4401-89C4-23B135B95721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4099034" y="10937327"/>
+          <a:ext cx="1366345" cy="1195552"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2353,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632E6C13-1FF6-4EF8-8EF1-5EF039111B47}">
   <dimension ref="C2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2376,7 +2788,7 @@
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>10</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -2390,13 +2802,13 @@
       <c r="C4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="J4" s="25" t="s">
+      <c r="F4" s="24"/>
+      <c r="J4" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -2432,46 +2844,46 @@
       <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="24"/>
       <c r="J8" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="J9" s="25" t="s">
+      <c r="F9" s="23"/>
+      <c r="J9" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2486,7 +2898,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2501,7 +2913,7 @@
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="25"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="16" t="s">
@@ -2519,10 +2931,10 @@
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="25"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="6:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F26" s="16" t="s">
@@ -2530,17 +2942,17 @@
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2555,7 +2967,7 @@
       </c>
     </row>
     <row r="32" spans="6:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2571,7 +2983,7 @@
       <c r="C35" s="15">
         <v>9</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2579,7 +2991,7 @@
       <c r="C36" s="16">
         <v>8</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2603,7 +3015,7 @@
       <c r="C39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2630,7 +3042,7 @@
       <c r="C42" s="16">
         <v>2</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="15" t="s">
@@ -2638,34 +3050,43 @@
       </c>
     </row>
     <row r="43" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="F45" s="23" t="s">
+    <row r="45" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F45" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="I45" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="I46" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F47" s="16" t="s">
         <v>9</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.4">
@@ -2684,28 +3105,35 @@
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="6:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="23" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I41:I43">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:I47">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>